--- a/data/03006.xlsx
+++ b/data/03006.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I328"/>
+  <dimension ref="A1:I329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12480,6 +12480,43 @@
         </is>
       </c>
     </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>03006</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>NPS</t>
+        </is>
+      </c>
+      <c r="E329" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F329" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H329" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I329" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
